--- a/mockup.xlsx
+++ b/mockup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sttysha/git/flipper/furious_birds/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sttysha/git/bmstr-ru/furious_birds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5183C8-27D8-3C42-A054-1E057DC400BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE387E8-9B06-6D4F-9F03-28F12B95EF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1600" windowWidth="28240" windowHeight="17240" xr2:uid="{26E4AA71-DD48-594E-9E42-F8D53C2DD921}"/>
   </bookViews>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7F4D2B-BAEA-9F40-A89B-7E7C9849248C}">
   <dimension ref="A1:DX64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="245" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CF7" sqref="CF7:CR19"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J48" sqref="J40:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.1640625" defaultRowHeight="7" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4880,16 +4880,16 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
+      <c r="Y35" s="1"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
@@ -5010,16 +5010,16 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
@@ -5140,16 +5140,16 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
@@ -5270,16 +5270,16 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
@@ -5400,16 +5400,16 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
@@ -5518,9 +5518,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -5530,16 +5530,16 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
@@ -5649,9 +5649,9 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="I41" s="1"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="K41" s="1"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5661,14 +5661,14 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
@@ -5778,11 +5778,11 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5791,14 +5791,14 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
@@ -5907,13 +5907,13 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="M43" s="1"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -5921,14 +5921,14 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
@@ -6036,7 +6036,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -6044,21 +6044,21 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
@@ -6165,14 +6165,14 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="1"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="1"/>
@@ -6182,13 +6182,13 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
@@ -6295,29 +6295,29 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="2"/>
+      <c r="P46" s="1"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
@@ -6423,9 +6423,9 @@
     <row r="47" spans="1:128" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -6437,17 +6437,17 @@
       <c r="N47" s="2"/>
       <c r="O47" s="1"/>
       <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
+      <c r="Q47" s="1"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
@@ -6554,29 +6554,29 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="J48" s="1"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
+      <c r="R48" s="1"/>
       <c r="S48" s="2"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
@@ -6683,9 +6683,9 @@
     <row r="49" spans="1:128" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -6696,17 +6696,17 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="1"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
@@ -6816,26 +6816,26 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
@@ -6944,28 +6944,28 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="1"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" s="1"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
@@ -7073,29 +7073,29 @@
     <row r="52" spans="1:128" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="G52" s="1"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="1"/>
+      <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="M52" s="1"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
@@ -7202,30 +7202,30 @@
     </row>
     <row r="53" spans="1:128" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="1"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="2"/>
+      <c r="L53" s="1"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="1"/>
+      <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
@@ -7332,30 +7332,30 @@
     </row>
     <row r="54" spans="1:128" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-      <c r="R54" s="1"/>
+      <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="55" spans="1:128" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="1"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -7471,21 +7471,21 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="1"/>
+      <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="1"/>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="1"/>
+      <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
@@ -7592,7 +7592,7 @@
     </row>
     <row r="56" spans="1:128" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -7601,21 +7601,21 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="1"/>
+      <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
@@ -7723,14 +7723,14 @@
     <row r="57" spans="1:128" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="1"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="1"/>
+      <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -7738,14 +7738,14 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="1"/>
+      <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
@@ -7854,12 +7854,12 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -7874,8 +7874,8 @@
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
@@ -7985,10 +7985,10 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -8004,8 +8004,8 @@
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
